--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1058630253550615</v>
+        <v>0.1124019449155688</v>
       </c>
       <c r="C2">
-        <v>0.6872080155452833</v>
+        <v>0.6821200353019861</v>
       </c>
       <c r="D2">
-        <v>1.230854482890091</v>
+        <v>1.209983865900432</v>
       </c>
       <c r="E2">
-        <v>1.109438814396761</v>
+        <v>1.099992666293931</v>
       </c>
       <c r="F2">
-        <v>1.115821144147565</v>
+        <v>1.105344008082418</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1959998328086932</v>
+        <v>0.1960116252932615</v>
       </c>
       <c r="C3">
-        <v>0.6854520936775405</v>
+        <v>0.6752669640606744</v>
       </c>
       <c r="D3">
-        <v>1.542833861370555</v>
+        <v>1.511496450551623</v>
       </c>
       <c r="E3">
-        <v>1.242108635092179</v>
+        <v>1.22942931905483</v>
       </c>
       <c r="F3">
-        <v>1.239807511047997</v>
+        <v>1.226547159135974</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.001961730465645828</v>
+        <v>0.001728000735583749</v>
       </c>
       <c r="C4">
-        <v>0.6406811503860494</v>
+        <v>0.6309824882362022</v>
       </c>
       <c r="D4">
-        <v>1.122392360832801</v>
+        <v>1.099648267891479</v>
       </c>
       <c r="E4">
-        <v>1.059430205739293</v>
+        <v>1.048641153060225</v>
       </c>
       <c r="F4">
-        <v>1.070882002237854</v>
+        <v>1.059736755062583</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08953297005549954</v>
+        <v>0.0937284794034382</v>
       </c>
       <c r="C5">
-        <v>0.6981920116044056</v>
+        <v>0.6894373285789633</v>
       </c>
       <c r="D5">
-        <v>1.67680397344744</v>
+        <v>1.642876430466323</v>
       </c>
       <c r="E5">
-        <v>1.294914658750699</v>
+        <v>1.281747412896286</v>
       </c>
       <c r="F5">
-        <v>1.306090346995288</v>
+        <v>1.292135878597467</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04329333046506866</v>
+        <v>0.04836703510120018</v>
       </c>
       <c r="C6">
-        <v>0.6645395635229381</v>
+        <v>0.6561079152665072</v>
       </c>
       <c r="D6">
-        <v>1.716042011959294</v>
+        <v>1.680400965917633</v>
       </c>
       <c r="E6">
-        <v>1.309977866973062</v>
+        <v>1.296302806414316</v>
       </c>
       <c r="F6">
-        <v>1.324056666575595</v>
+        <v>1.309714416778838</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04190138294920167</v>
+        <v>0.0481232454536701</v>
       </c>
       <c r="C7">
-        <v>0.6761921455761229</v>
+        <v>0.6637583974150937</v>
       </c>
       <c r="D7">
-        <v>1.228362680140926</v>
+        <v>1.194123607785736</v>
       </c>
       <c r="E7">
-        <v>1.108315244026232</v>
+        <v>1.092759629463742</v>
       </c>
       <c r="F7">
-        <v>1.124694812635017</v>
+        <v>1.108116937751023</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08524514279265738</v>
+        <v>0.09097433578834678</v>
       </c>
       <c r="C8">
-        <v>0.7215573609379782</v>
+        <v>0.7080043655050214</v>
       </c>
       <c r="D8">
-        <v>1.228631733348376</v>
+        <v>1.193680625051876</v>
       </c>
       <c r="E8">
-        <v>1.108436616748281</v>
+        <v>1.092556920737714</v>
       </c>
       <c r="F8">
-        <v>1.12283741918117</v>
+        <v>1.105643785089591</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02176724325944799</v>
+        <v>0.03775263814022831</v>
       </c>
       <c r="C9">
-        <v>0.6431667952698731</v>
+        <v>0.6203147181500017</v>
       </c>
       <c r="D9">
-        <v>0.6352062063145206</v>
+        <v>0.600319873274656</v>
       </c>
       <c r="E9">
-        <v>0.7969982473723017</v>
+        <v>0.7748031190403508</v>
       </c>
       <c r="F9">
-        <v>0.824663823347389</v>
+        <v>0.7992627346669655</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.00243350456215827</v>
+        <v>0.02639662487600095</v>
       </c>
       <c r="C10">
-        <v>0.7047482916292299</v>
+        <v>0.6628602414482503</v>
       </c>
       <c r="D10">
-        <v>0.7616903097228737</v>
+        <v>0.693693318076211</v>
       </c>
       <c r="E10">
-        <v>0.8727487093790937</v>
+        <v>0.8328825355812253</v>
       </c>
       <c r="F10">
-        <v>0.9256861975047064</v>
+        <v>0.8774942458002957</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3934793239648547</v>
+        <v>0.3895586535830836</v>
       </c>
       <c r="C2">
-        <v>0.4037288085692023</v>
+        <v>0.3895586535830836</v>
       </c>
       <c r="D2">
-        <v>0.2175455044138317</v>
+        <v>0.1926588447844201</v>
       </c>
       <c r="E2">
-        <v>0.4664177359554756</v>
+        <v>0.4389292024739526</v>
       </c>
       <c r="F2">
-        <v>0.2626622900771862</v>
+        <v>0.2145128497976859</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3075541611523277</v>
+        <v>0.2985262890045486</v>
       </c>
       <c r="C3">
-        <v>0.3490093155375321</v>
+        <v>0.3172922402961569</v>
       </c>
       <c r="D3">
-        <v>0.1614430495769377</v>
+        <v>0.1252830370555511</v>
       </c>
       <c r="E3">
-        <v>0.4017997630374335</v>
+        <v>0.3539534391068282</v>
       </c>
       <c r="F3">
-        <v>0.2691182110078417</v>
+        <v>0.1994532552043115</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2355384709971136</v>
+        <v>0.2787209351834913</v>
       </c>
       <c r="C4">
-        <v>0.2831383568828125</v>
+        <v>0.3278067591540666</v>
       </c>
       <c r="D4">
-        <v>0.1164317108812595</v>
+        <v>0.1386282432761488</v>
       </c>
       <c r="E4">
-        <v>0.3412209121394226</v>
+        <v>0.3723281392483635</v>
       </c>
       <c r="F4">
-        <v>0.2578653762121229</v>
+        <v>0.2589153759884639</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3198529258979658</v>
+        <v>0.3034897228953755</v>
       </c>
       <c r="C5">
-        <v>0.3395672504785434</v>
+        <v>0.3268934070108915</v>
       </c>
       <c r="D5">
-        <v>0.1389581556796866</v>
+        <v>0.1294052293206626</v>
       </c>
       <c r="E5">
-        <v>0.3727709158178606</v>
+        <v>0.35972938345465</v>
       </c>
       <c r="F5">
-        <v>0.2030610601727263</v>
+        <v>0.2064647113882407</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3074279757554496</v>
+        <v>0.3209127895838344</v>
       </c>
       <c r="C6">
-        <v>0.3343017199468005</v>
+        <v>0.3481513866787824</v>
       </c>
       <c r="D6">
-        <v>0.1343402168544869</v>
+        <v>0.1477021037193441</v>
       </c>
       <c r="E6">
-        <v>0.3665245105780607</v>
+        <v>0.3843203139561375</v>
       </c>
       <c r="F6">
-        <v>0.2116761409549216</v>
+        <v>0.2242915978162668</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2926088612260327</v>
+        <v>0.2986844067393156</v>
       </c>
       <c r="C7">
-        <v>0.3274254659629177</v>
+        <v>0.3331691208960183</v>
       </c>
       <c r="D7">
-        <v>0.1289431368268439</v>
+        <v>0.1354274215115737</v>
       </c>
       <c r="E7">
-        <v>0.3590865311131063</v>
+        <v>0.3680046487635362</v>
       </c>
       <c r="F7">
-        <v>0.2207681817058433</v>
+        <v>0.2298199212609901</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.317927339586861</v>
+        <v>0.3065635236640661</v>
       </c>
       <c r="C8">
-        <v>0.3473839361765009</v>
+        <v>0.335248462641951</v>
       </c>
       <c r="D8">
-        <v>0.1472957456731997</v>
+        <v>0.1402267591879591</v>
       </c>
       <c r="E8">
-        <v>0.3837912787873113</v>
+        <v>0.3744686357867092</v>
       </c>
       <c r="F8">
-        <v>0.2298271460192152</v>
+        <v>0.2322781938489615</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4144960872388948</v>
+        <v>0.323074747095869</v>
       </c>
       <c r="C9">
-        <v>0.4144960872388948</v>
+        <v>0.3439312876808158</v>
       </c>
       <c r="D9">
-        <v>0.1890665073398827</v>
+        <v>0.1492574881197667</v>
       </c>
       <c r="E9">
-        <v>0.4348177863656024</v>
+        <v>0.3863385666999435</v>
       </c>
       <c r="F9">
-        <v>0.1468821849456614</v>
+        <v>0.2288235751843726</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3684953970074996</v>
+        <v>0.3092991727900825</v>
       </c>
       <c r="C10">
-        <v>0.3684953970074996</v>
+        <v>0.3325527292829896</v>
       </c>
       <c r="D10">
-        <v>0.15310089540861</v>
+        <v>0.1414838076039549</v>
       </c>
       <c r="E10">
-        <v>0.3912810951331663</v>
+        <v>0.3761433338555329</v>
       </c>
       <c r="F10">
-        <v>0.1611460725222393</v>
+        <v>0.2393162899682282</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.570669944985061</v>
+        <v>0.2921799865119131</v>
       </c>
       <c r="C11">
-        <v>0.570669944985061</v>
+        <v>0.3130099903630257</v>
       </c>
       <c r="D11">
-        <v>0.3256641861092525</v>
+        <v>0.1357437534307621</v>
       </c>
       <c r="E11">
-        <v>0.570669944985061</v>
+        <v>0.3684341914518278</v>
+      </c>
+      <c r="F11">
+        <v>0.2591643208793996</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3895586535830836</v>
+        <v>0.3934793239648547</v>
       </c>
       <c r="C2">
-        <v>0.3895586535830836</v>
+        <v>0.4037288085692023</v>
       </c>
       <c r="D2">
-        <v>0.1926588447844201</v>
+        <v>0.2175455044138317</v>
       </c>
       <c r="E2">
-        <v>0.4389292024739526</v>
+        <v>0.4664177359554756</v>
       </c>
       <c r="F2">
-        <v>0.2145128497976859</v>
+        <v>0.2626622900771862</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2985262890045486</v>
+        <v>0.3075541611523277</v>
       </c>
       <c r="C3">
-        <v>0.3172922402961569</v>
+        <v>0.3490093155375321</v>
       </c>
       <c r="D3">
-        <v>0.1252830370555511</v>
+        <v>0.1614430495769377</v>
       </c>
       <c r="E3">
-        <v>0.3539534391068282</v>
+        <v>0.4017997630374335</v>
       </c>
       <c r="F3">
-        <v>0.1994532552043115</v>
+        <v>0.2691182110078417</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2787209351834913</v>
+        <v>0.2355384709971136</v>
       </c>
       <c r="C4">
-        <v>0.3278067591540666</v>
+        <v>0.2831383568828125</v>
       </c>
       <c r="D4">
-        <v>0.1386282432761488</v>
+        <v>0.1164317108812595</v>
       </c>
       <c r="E4">
-        <v>0.3723281392483635</v>
+        <v>0.3412209121394226</v>
       </c>
       <c r="F4">
-        <v>0.2589153759884639</v>
+        <v>0.2578653762121229</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3034897228953755</v>
+        <v>0.3198529258979658</v>
       </c>
       <c r="C5">
-        <v>0.3268934070108915</v>
+        <v>0.3395672504785434</v>
       </c>
       <c r="D5">
-        <v>0.1294052293206626</v>
+        <v>0.1389581556796866</v>
       </c>
       <c r="E5">
-        <v>0.35972938345465</v>
+        <v>0.3727709158178606</v>
       </c>
       <c r="F5">
-        <v>0.2064647113882407</v>
+        <v>0.2030610601727263</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3209127895838344</v>
+        <v>0.3074279757554496</v>
       </c>
       <c r="C6">
-        <v>0.3481513866787824</v>
+        <v>0.3343017199468005</v>
       </c>
       <c r="D6">
-        <v>0.1477021037193441</v>
+        <v>0.1343402168544869</v>
       </c>
       <c r="E6">
-        <v>0.3843203139561375</v>
+        <v>0.3665245105780607</v>
       </c>
       <c r="F6">
-        <v>0.2242915978162668</v>
+        <v>0.2116761409549216</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2986844067393156</v>
+        <v>0.2926088612260327</v>
       </c>
       <c r="C7">
-        <v>0.3331691208960183</v>
+        <v>0.3274254659629177</v>
       </c>
       <c r="D7">
-        <v>0.1354274215115737</v>
+        <v>0.1289431368268439</v>
       </c>
       <c r="E7">
-        <v>0.3680046487635362</v>
+        <v>0.3590865311131063</v>
       </c>
       <c r="F7">
-        <v>0.2298199212609901</v>
+        <v>0.2207681817058433</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3065635236640661</v>
+        <v>0.317927339586861</v>
       </c>
       <c r="C8">
-        <v>0.335248462641951</v>
+        <v>0.3473839361765009</v>
       </c>
       <c r="D8">
-        <v>0.1402267591879591</v>
+        <v>0.1472957456731997</v>
       </c>
       <c r="E8">
-        <v>0.3744686357867092</v>
+        <v>0.3837912787873113</v>
       </c>
       <c r="F8">
-        <v>0.2322781938489615</v>
+        <v>0.2298271460192152</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.323074747095869</v>
+        <v>0.3052654375636107</v>
       </c>
       <c r="C9">
-        <v>0.3439312876808158</v>
+        <v>0.3373465939268102</v>
       </c>
       <c r="D9">
-        <v>0.1492574881197667</v>
+        <v>0.1413070844341813</v>
       </c>
       <c r="E9">
-        <v>0.3863385666999435</v>
+        <v>0.3759083457894774</v>
       </c>
       <c r="F9">
-        <v>0.2288235751843726</v>
+        <v>0.23693904963195</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3092991727900825</v>
+        <v>0.3173063146244254</v>
       </c>
       <c r="C10">
-        <v>0.3325527292829896</v>
+        <v>0.3418763137882747</v>
       </c>
       <c r="D10">
-        <v>0.1414838076039549</v>
+        <v>0.1463084296434522</v>
       </c>
       <c r="E10">
-        <v>0.3761433338555329</v>
+        <v>0.3825028491965154</v>
       </c>
       <c r="F10">
-        <v>0.2393162899682282</v>
+        <v>0.2307148046110977</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2921799865119131</v>
+        <v>0.3606037648954714</v>
       </c>
       <c r="C11">
-        <v>0.3130099903630257</v>
+        <v>0.379698193710172</v>
       </c>
       <c r="D11">
-        <v>0.1357437534307621</v>
+        <v>0.1799938953220499</v>
       </c>
       <c r="E11">
-        <v>0.3684341914518278</v>
+        <v>0.4242568742189688</v>
       </c>
       <c r="F11">
-        <v>0.2591643208793996</v>
+        <v>0.2448480836729456</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_sd_filtered/AR2_50_9_qoq_forecast_error_table_first_eval_sd_filtered.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3934793239648547</v>
+        <v>0.1124019449155688</v>
       </c>
       <c r="C2">
-        <v>0.4037288085692023</v>
+        <v>0.6821200353019861</v>
       </c>
       <c r="D2">
-        <v>0.2175455044138317</v>
+        <v>1.209983865900432</v>
       </c>
       <c r="E2">
-        <v>0.4664177359554756</v>
+        <v>1.099992666293931</v>
       </c>
       <c r="F2">
-        <v>0.2626622900771862</v>
+        <v>1.105344008082418</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3075541611523277</v>
+        <v>0.1960116252932615</v>
       </c>
       <c r="C3">
-        <v>0.3490093155375321</v>
+        <v>0.6752669640606744</v>
       </c>
       <c r="D3">
-        <v>0.1614430495769377</v>
+        <v>1.511496450551623</v>
       </c>
       <c r="E3">
-        <v>0.4017997630374335</v>
+        <v>1.22942931905483</v>
       </c>
       <c r="F3">
-        <v>0.2691182110078417</v>
+        <v>1.226547159135974</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2355384709971136</v>
+        <v>0.001728000735583749</v>
       </c>
       <c r="C4">
-        <v>0.2831383568828125</v>
+        <v>0.6309824882362022</v>
       </c>
       <c r="D4">
-        <v>0.1164317108812595</v>
+        <v>1.099648267891479</v>
       </c>
       <c r="E4">
-        <v>0.3412209121394226</v>
+        <v>1.048641153060225</v>
       </c>
       <c r="F4">
-        <v>0.2578653762121229</v>
+        <v>1.059736755062583</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3198529258979658</v>
+        <v>0.0937284794034382</v>
       </c>
       <c r="C5">
-        <v>0.3395672504785434</v>
+        <v>0.6894373285789633</v>
       </c>
       <c r="D5">
-        <v>0.1389581556796866</v>
+        <v>1.642876430466323</v>
       </c>
       <c r="E5">
-        <v>0.3727709158178606</v>
+        <v>1.281747412896286</v>
       </c>
       <c r="F5">
-        <v>0.2030610601727263</v>
+        <v>1.292135878597467</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3074279757554496</v>
+        <v>0.04836703510120018</v>
       </c>
       <c r="C6">
-        <v>0.3343017199468005</v>
+        <v>0.6561079152665072</v>
       </c>
       <c r="D6">
-        <v>0.1343402168544869</v>
+        <v>1.680400965917633</v>
       </c>
       <c r="E6">
-        <v>0.3665245105780607</v>
+        <v>1.296302806414316</v>
       </c>
       <c r="F6">
-        <v>0.2116761409549216</v>
+        <v>1.309714416778838</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2926088612260327</v>
+        <v>0.0481232454536701</v>
       </c>
       <c r="C7">
-        <v>0.3274254659629177</v>
+        <v>0.6637583974150937</v>
       </c>
       <c r="D7">
-        <v>0.1289431368268439</v>
+        <v>1.194123607785736</v>
       </c>
       <c r="E7">
-        <v>0.3590865311131063</v>
+        <v>1.092759629463742</v>
       </c>
       <c r="F7">
-        <v>0.2207681817058433</v>
+        <v>1.108116937751023</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.317927339586861</v>
+        <v>0.09097433578834678</v>
       </c>
       <c r="C8">
-        <v>0.3473839361765009</v>
+        <v>0.7080043655050214</v>
       </c>
       <c r="D8">
-        <v>0.1472957456731997</v>
+        <v>1.193680625051876</v>
       </c>
       <c r="E8">
-        <v>0.3837912787873113</v>
+        <v>1.092556920737714</v>
       </c>
       <c r="F8">
-        <v>0.2298271460192152</v>
+        <v>1.105643785089591</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3052654375636107</v>
+        <v>0.03775263814022831</v>
       </c>
       <c r="C9">
-        <v>0.3373465939268102</v>
+        <v>0.6203147181500017</v>
       </c>
       <c r="D9">
-        <v>0.1413070844341813</v>
+        <v>0.600319873274656</v>
       </c>
       <c r="E9">
-        <v>0.3759083457894774</v>
+        <v>0.7748031190403508</v>
       </c>
       <c r="F9">
-        <v>0.23693904963195</v>
+        <v>0.7992627346669655</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3173063146244254</v>
+        <v>0.02639662487600095</v>
       </c>
       <c r="C10">
-        <v>0.3418763137882747</v>
+        <v>0.6628602414482503</v>
       </c>
       <c r="D10">
-        <v>0.1463084296434522</v>
+        <v>0.693693318076211</v>
       </c>
       <c r="E10">
-        <v>0.3825028491965154</v>
+        <v>0.8328825355812253</v>
       </c>
       <c r="F10">
-        <v>0.2307148046110977</v>
+        <v>0.8774942458002957</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3606037648954714</v>
+        <v>0.2236099196487949</v>
       </c>
       <c r="C11">
-        <v>0.379698193710172</v>
+        <v>0.5232375926460167</v>
       </c>
       <c r="D11">
-        <v>0.1799938953220499</v>
+        <v>0.3429526541974182</v>
       </c>
       <c r="E11">
-        <v>0.4242568742189688</v>
+        <v>0.5856215964233373</v>
       </c>
       <c r="F11">
-        <v>0.2448480836729456</v>
+        <v>0.6051355819484564</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
